--- a/project/Timer_Controller_20191209/spec.xlsx
+++ b/project/Timer_Controller_20191209/spec.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28245" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="选型设计" sheetId="1" r:id="rId1"/>
+    <sheet name="IC" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>延时控制器</t>
   </si>
@@ -30,58 +30,86 @@
     <t>功能</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>IO资源</t>
   </si>
   <si>
+    <t>STC15W204S</t>
+  </si>
+  <si>
     <t>595接口</t>
   </si>
   <si>
-    <t>4位数码管*2</t>
-  </si>
-  <si>
-    <t>按键灯*1</t>
-  </si>
-  <si>
-    <t>级联口</t>
-  </si>
-  <si>
-    <t>电源指示灯</t>
-  </si>
-  <si>
-    <t>运行指示灯</t>
-  </si>
-  <si>
-    <t>预留</t>
-  </si>
-  <si>
-    <t>轻触按键接口</t>
-  </si>
-  <si>
-    <t>可以级联，预留2*4</t>
+    <t>按键灯*4</t>
+  </si>
+  <si>
+    <t>预留扩展接口</t>
+  </si>
+  <si>
+    <t>前后级联
+预留短接</t>
+  </si>
+  <si>
+    <t>运行指示灯*1</t>
+  </si>
+  <si>
+    <t>8个光耦拓展</t>
+  </si>
+  <si>
+    <t>加通断指示灯
+光耦间加自锁开关</t>
   </si>
   <si>
     <t>PT2276接口</t>
   </si>
   <si>
-    <t>自锁按键接口</t>
-  </si>
-  <si>
-    <t>可以级联</t>
-  </si>
-  <si>
-    <t>蓝牙</t>
-  </si>
-  <si>
-    <t>wifi</t>
+    <t>无线遥控</t>
   </si>
   <si>
     <t>Debug 口</t>
   </si>
   <si>
-    <t>下载口，可做蓝牙，wifi口</t>
-  </si>
-  <si>
-    <t>AS-3023-E0300-150-s</t>
+    <t>下载
+蓝牙
+wifi</t>
+  </si>
+  <si>
+    <t>TM1650</t>
+  </si>
+  <si>
+    <t>4位数码管</t>
+  </si>
+  <si>
+    <t>共阴-灰度可调</t>
+  </si>
+  <si>
+    <t>4个按键</t>
+  </si>
+  <si>
+    <t>预留级联口</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>优信</t>
+  </si>
+  <si>
+    <t>立创</t>
+  </si>
+  <si>
+    <t>AS-3023-E0300-150-S</t>
   </si>
   <si>
     <t>罐封变压器</t>
@@ -97,16 +125,32 @@
   </si>
   <si>
     <t>可控硅，晶闸管</t>
+  </si>
+  <si>
+    <t>ABS10</t>
+  </si>
+  <si>
+    <t>整流桥</t>
+  </si>
+  <si>
+    <t>600p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XL1509 +5.0E </t>
+  </si>
+  <si>
+    <t>DCDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -120,9 +164,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,6 +174,36 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,17 +215,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,22 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,37 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -239,17 +300,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,14 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,25 +323,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,169 +507,85 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,8 +607,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,58 +661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,160 +671,211 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -794,16 +942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -820,8 +968,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9258300" y="1733550"/>
-          <a:ext cx="3409950" cy="704850"/>
+          <a:off x="19030950" y="3810000"/>
+          <a:ext cx="3409950" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -836,16 +984,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1733550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219710</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>248285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,7 +1010,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8963025" y="2743200"/>
+          <a:off x="20002500" y="4156075"/>
           <a:ext cx="7115810" cy="4255135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -878,16 +1026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>199390</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>456565</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>241935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -904,7 +1052,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13315315" y="9525"/>
+          <a:off x="19782790" y="1270"/>
           <a:ext cx="2591435" cy="2806065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -916,16 +1064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -942,7 +1090,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9705975" y="7118350"/>
+          <a:off x="20326350" y="7747000"/>
           <a:ext cx="4791075" cy="1743075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -957,13 +1105,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>8255</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>92710</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>256540</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -980,7 +1128,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14495780" y="7230110"/>
+          <a:off x="15219680" y="8051800"/>
           <a:ext cx="2706370" cy="1687830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1280,177 +1428,238 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="20.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="31" customHeight="1" spans="1:7">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" ht="31" customHeight="1" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="24" customHeight="1" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="F2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="31" customHeight="1" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="24" customHeight="1" spans="2:7">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="31" customHeight="1" spans="1:16">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="D5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="P5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="2:7">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="2:7">
-      <c r="B6" s="1" t="s">
+    <row r="6" ht="47" customHeight="1" spans="1:7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="31" customHeight="1" spans="1:7">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="31" customHeight="1" spans="1:7">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:7">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="34" customHeight="1" spans="1:7">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="14">
+        <f>SUM(G2:G9)</f>
         <v>14</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="2:4">
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="2:7">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="2:3">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="34" customHeight="1" spans="2:7">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" ht="24" customHeight="1"/>
-    <row r="12" ht="24" customHeight="1"/>
-    <row r="13" ht="24" customHeight="1"/>
+    <row r="12" ht="24" customHeight="1" spans="13:18">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="12:17">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
     <row r="14" ht="24" customHeight="1"/>
-    <row r="15" ht="24" customHeight="1"/>
-    <row r="16" ht="24" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1"/>
-    <row r="20" ht="24" customHeight="1"/>
-    <row r="21" ht="24" customHeight="1"/>
-    <row r="22" ht="24" customHeight="1"/>
+    <row r="15" ht="24" customHeight="1" spans="4:4">
+      <c r="D15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1"/>
+    <row r="17" ht="24" customHeight="1" spans="10:15">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="4:15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="4:4">
+      <c r="D19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="4:4">
+      <c r="D20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="4:4">
+      <c r="D21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="4:4">
+      <c r="D22" s="19"/>
+    </row>
     <row r="23" ht="24" customHeight="1"/>
     <row r="24" ht="24" customHeight="1"/>
     <row r="25" ht="24" customHeight="1"/>
@@ -1501,9 +1710,17 @@
     <row r="70" ht="24" customHeight="1"/>
     <row r="71" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="O17:O18"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1515,14 +1732,108 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6.39</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6">
+        <v>0.0995</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="D7">
+        <v>0.78</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/project/Timer_Controller_20191209/spec.xlsx
+++ b/project/Timer_Controller_20191209/spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12690"/>
+    <workbookView windowWidth="28245" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="选型设计" sheetId="1" r:id="rId1"/>
@@ -1103,15 +1103,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:colOff>198755</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1128,7 +1128,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15219680" y="8051800"/>
+          <a:off x="15410180" y="8251825"/>
           <a:ext cx="2706370" cy="1687830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
